--- a/metadata/dayan_metadata/raw_metadata/cougar/Cougar Fishtrap 2020.xlsx
+++ b/metadata/dayan_metadata/raw_metadata/cougar/Cougar Fishtrap 2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nwd\nwp\STAFF\CENWP-ODV\aquatic_stewardship\MONITORING\Cougar\CGR_Adult_Trap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ddayan/FRA/McKenzie_pedigree/mckenzie_2022/metadata/dayan_metadata/raw_metadata/cougar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD00A41F-6A53-4289-9229-DA96B549D5C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE89521-058B-6D43-B8CE-2ADCC5DBBC31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1116,6 +1116,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1126,28 +1147,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1432,39 +1432,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="15" customWidth="1"/>
-    <col min="3" max="5" width="8.88671875" style="6"/>
-    <col min="8" max="9" width="8.88671875" style="6"/>
-    <col min="11" max="11" width="8.88671875" style="6"/>
-    <col min="16" max="16" width="8.88671875" style="6"/>
-    <col min="18" max="20" width="8.88671875" style="6"/>
-    <col min="24" max="28" width="8.88671875" style="6"/>
-    <col min="29" max="29" width="60.44140625" customWidth="1"/>
+    <col min="3" max="5" width="8.83203125" style="6"/>
+    <col min="8" max="9" width="8.83203125" style="6"/>
+    <col min="11" max="11" width="8.83203125" style="6"/>
+    <col min="16" max="16" width="8.83203125" style="6"/>
+    <col min="18" max="20" width="8.83203125" style="6"/>
+    <col min="24" max="28" width="8.83203125" style="6"/>
+    <col min="29" max="29" width="60.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
       <c r="N1" s="1"/>
       <c r="O1" s="2"/>
       <c r="P1" s="21"/>
@@ -1485,8 +1485,8 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="5"/>
     </row>
-    <row r="2" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="43" t="s">
@@ -1503,13 +1503,13 @@
         <v>3</v>
       </c>
       <c r="I2" s="27"/>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
       <c r="O2" s="7"/>
       <c r="P2" s="22"/>
       <c r="R2" s="43" t="s">
@@ -1527,13 +1527,13 @@
       <c r="Z2" s="16"/>
       <c r="AA2" s="16"/>
       <c r="AB2" s="16"/>
-      <c r="AC2" s="46" t="s">
+      <c r="AC2" s="45" t="s">
         <v>7</v>
       </c>
       <c r="AD2" s="5"/>
     </row>
-    <row r="3" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
+    <row r="3" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="48"/>
       <c r="B3" s="43" t="s">
         <v>8</v>
       </c>
@@ -1583,11 +1583,11 @@
         <v>36</v>
       </c>
       <c r="AB3" s="43"/>
-      <c r="AC3" s="46"/>
+      <c r="AC3" s="45"/>
       <c r="AD3" s="5"/>
     </row>
-    <row r="4" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
+    <row r="4" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="49"/>
       <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
@@ -1661,10 +1661,10 @@
       <c r="AB4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AC4" s="47"/>
+      <c r="AC4" s="46"/>
       <c r="AD4" s="5"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>43906</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>43908</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>43913</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>43916</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>43920</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>43923</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>43927</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>43930</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>43934</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>43937</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>43941</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>43943</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <v>43944</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>43948</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <v>43951</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="15">
         <v>43955</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
         <v>43958</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
         <v>43962</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="15">
         <v>43963</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
         <v>43965</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="15">
         <v>43969</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" s="15">
         <v>43972</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" s="15">
         <v>43977</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
         <v>43979</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
         <v>43983</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="15">
         <v>43990</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="15">
         <v>43993</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="15">
         <v>43997</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" s="15">
         <v>44000</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="15">
         <v>44004</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" s="15">
         <v>44007</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="15">
         <v>44011</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="15">
         <v>44013</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="15">
         <v>44018</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="15">
         <v>44021</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="15">
         <v>44025</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" s="15">
         <v>44028</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="15">
         <v>44032</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="15">
         <v>44035</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="15">
         <v>44039</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="15">
         <v>44042</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" s="15">
         <v>44046</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" s="15">
         <v>44049</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" s="15">
         <v>44053</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" s="15">
         <v>44055</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" s="15">
         <v>44060</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" s="15">
         <v>44063</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" s="15">
         <v>44067</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" s="15">
         <v>44070</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A54" s="15">
         <v>44074</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55" s="15">
         <v>44077</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56" s="15">
         <v>44081</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="57" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:29" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30">
         <v>44085</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" s="29" t="s">
         <v>54</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" s="29" t="s">
         <v>60</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64" s="29" t="s">
         <v>286</v>
       </c>
@@ -2883,6 +2883,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="J2:N2"/>
     <mergeCell ref="R2:R4"/>
     <mergeCell ref="V2:V4"/>
     <mergeCell ref="AC2:AC4"/>
@@ -2893,12 +2899,6 @@
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="J2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -2914,30 +2914,30 @@
       <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="8.88671875" style="49"/>
-    <col min="16" max="16" width="8.88671875" style="6"/>
-    <col min="18" max="20" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.83203125" style="6"/>
+    <col min="2" max="2" width="8.83203125" style="41"/>
+    <col min="16" max="16" width="8.83203125" style="6"/>
+    <col min="18" max="20" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
       <c r="N1" s="20"/>
       <c r="O1" s="2"/>
       <c r="P1" s="21"/>
@@ -2949,8 +2949,8 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="48" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="43" t="s">
@@ -2967,13 +2967,13 @@
         <v>285</v>
       </c>
       <c r="I2" s="18"/>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
       <c r="O2" s="38"/>
       <c r="P2" s="22"/>
       <c r="Q2" s="6"/>
@@ -2988,8 +2988,8 @@
       </c>
       <c r="W2" s="18"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="48"/>
       <c r="B3" s="43" t="s">
         <v>8</v>
       </c>
@@ -3031,9 +3031,9 @@
       <c r="V3" s="43"/>
       <c r="W3" s="18"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
-      <c r="B4" s="48" t="s">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="49"/>
+      <c r="B4" s="40" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="39" t="s">
@@ -3092,7 +3092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>44</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>45</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>52</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>55</v>
       </c>
@@ -3186,7 +3186,7 @@
       <c r="G8" s="6">
         <v>1</v>
       </c>
-      <c r="H8" s="50">
+      <c r="H8" s="42">
         <f>SUM(D8:G8)</f>
         <v>44</v>
       </c>
@@ -3208,11 +3208,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="41">
         <v>2</v>
       </c>
       <c r="C9" s="6">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="50">
+      <c r="H9" s="42">
         <f>SUM(B9:G9)</f>
         <v>79</v>
       </c>
@@ -3255,11 +3255,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="41">
         <v>2</v>
       </c>
       <c r="C10" s="6"/>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="50">
+      <c r="H10" s="42">
         <f>SUM(B10:G10)</f>
         <v>40</v>
       </c>
@@ -3295,11 +3295,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B11" s="49">
+      <c r="B11" s="41">
         <v>1</v>
       </c>
       <c r="C11" s="6"/>
@@ -3309,7 +3309,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="50">
+      <c r="H11" s="42">
         <f>SUM(B11:G11)</f>
         <v>4</v>
       </c>
@@ -3324,11 +3324,17 @@
       <c r="O11" s="6"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="J2:N2"/>
     <mergeCell ref="R2:R4"/>
     <mergeCell ref="V2:V4"/>
     <mergeCell ref="B3:C3"/>
@@ -3336,12 +3342,6 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="O3:P3"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="J2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -3352,25 +3352,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K260"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K260" sqref="K260"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="34"/>
-    <col min="2" max="3" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.83203125" style="34"/>
+    <col min="2" max="3" width="8.83203125" style="6"/>
     <col min="4" max="4" width="11.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="6"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="6"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" customWidth="1"/>
-    <col min="10" max="10" width="36.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="36.1640625" customWidth="1"/>
     <col min="11" max="11" width="14" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="34">
         <v>43969</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="34">
         <v>43983</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="34">
         <v>43983</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="34">
         <v>43990</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="6">
         <v>2</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="34">
         <v>43993</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="6">
         <v>2</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="34">
         <v>43997</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="6">
         <v>2</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="6">
         <v>3</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="6">
         <v>4</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="6">
         <v>5</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="34">
         <v>44000</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="34">
         <v>44004</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="6">
         <v>2</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B17" s="6">
         <v>3</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B18" s="6">
         <v>4</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B19" s="6">
         <v>5</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B20" s="6">
         <v>6</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="34">
         <v>44007</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B22" s="6">
         <v>2</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B23" s="6">
         <v>3</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B24" s="6">
         <v>4</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B25" s="6">
         <v>5</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B26" s="6">
         <v>6</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B27" s="6">
         <v>7</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B28" s="6">
         <v>8</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B29" s="6">
         <v>9</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B30" s="6">
         <v>10</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B31" s="6">
         <v>11</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B32" s="6">
         <v>12</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B33" s="6">
         <v>13</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B34" s="6">
         <v>14</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B35" s="6">
         <v>15</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="34">
         <v>44011</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B37" s="6">
         <v>2</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B38" s="6">
         <v>3</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B39" s="6">
         <v>4</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B40" s="6">
         <v>5</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B41" s="6">
         <v>6</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B42" s="6">
         <v>7</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B43" s="6">
         <v>8</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B44" s="6">
         <v>9</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B45" s="6">
         <v>10</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B46" s="6">
         <v>11</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="34">
         <v>44013</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B48" s="6">
         <v>2</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B49" s="6">
         <v>3</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B50" s="6">
         <v>4</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B51" s="6">
         <v>5</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B52" s="6">
         <v>6</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B53" s="6">
         <v>7</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="34">
         <v>44018</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B55" s="6">
         <v>2</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B56" s="6">
         <v>3</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B57" s="6">
         <v>4</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B58" s="6">
         <v>5</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B59" s="6">
         <v>6</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B60" s="6">
         <v>7</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B61" s="6">
         <v>8</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B62" s="6">
         <v>9</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B63" s="6">
         <v>10</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B64" s="6">
         <v>11</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B65" s="6">
         <v>12</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="34">
         <v>44021</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B67" s="6">
         <v>2</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B68" s="6">
         <v>3</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B69" s="6">
         <v>4</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="34">
         <v>44025</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="34">
         <v>44028</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B72" s="6">
         <v>2</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B73" s="6">
         <v>3</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B74" s="6">
         <v>4</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B75" s="6">
         <v>5</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B76" s="6">
         <v>6</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B77" s="6">
         <v>7</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B78" s="6">
         <v>8</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B79" s="6">
         <v>9</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B80" s="6">
         <v>10</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B81" s="6">
         <v>11</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B82" s="6">
         <v>12</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="34">
         <v>44032</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B84" s="6">
         <v>2</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B85" s="6">
         <v>3</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B86" s="6">
         <v>4</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B87" s="6">
         <v>5</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B88" s="6">
         <v>6</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B89" s="6">
         <v>7</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B90" s="6">
         <v>8</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B91" s="6">
         <v>9</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B92" s="6">
         <v>10</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B93" s="6">
         <v>11</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B94" s="6">
         <v>12</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B95" s="6">
         <v>13</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B96" s="6">
         <v>14</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B97" s="6">
         <v>15</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B98" s="6">
         <v>16</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B99" s="6">
         <v>17</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B100" s="6">
         <v>18</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B101" s="6">
         <v>19</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B102" s="6">
         <v>20</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B103" s="6">
         <v>21</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="34">
         <v>44035</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B105" s="6">
         <v>2</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B106" s="6">
         <v>3</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B107" s="6">
         <v>4</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B108" s="6">
         <v>5</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B109" s="6">
         <v>6</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B110" s="6">
         <v>7</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="34">
         <v>44039</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B112" s="6">
         <v>2</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B113" s="6">
         <v>3</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B114" s="6">
         <v>4</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B115" s="6">
         <v>5</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B116" s="6">
         <v>6</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B117" s="6">
         <v>7</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B118" s="6">
         <v>8</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B119" s="6">
         <v>9</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B120" s="6">
         <v>10</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B121" s="6">
         <v>11</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B122" s="6">
         <v>12</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B123" s="6">
         <v>13</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B124" s="6">
         <v>14</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B125" s="6">
         <v>15</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B126" s="6">
         <v>16</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B127" s="6">
         <v>17</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B128" s="6">
         <v>18</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B129" s="6">
         <v>19</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B130" s="6">
         <v>20</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B131" s="6">
         <v>21</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B132" s="6">
         <v>22</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>61</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="E132" s="6" t="s">
         <v>48</v>
@@ -6896,7 +6896,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B133" s="6">
         <v>23</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B134" s="6">
         <v>24</v>
       </c>
@@ -6951,7 +6951,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B135" s="6">
         <v>25</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="34">
         <v>44042</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B137" s="6">
         <v>2</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B138" s="6">
         <v>3</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B139" s="6">
         <v>4</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B140" s="6">
         <v>5</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B141" s="6">
         <v>6</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B142" s="6">
         <v>7</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B143" s="6">
         <v>8</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B144" s="6">
         <v>9</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B145" s="6">
         <v>10</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B146" s="6">
         <v>11</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B147" s="6">
         <v>12</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B148" s="6">
         <v>13</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B149" s="6">
         <v>14</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="34">
         <v>44046</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B151" s="6">
         <v>2</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B152" s="6">
         <v>3</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B153" s="6">
         <v>4</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B154" s="6">
         <v>5</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B155" s="6">
         <v>6</v>
       </c>
@@ -7479,7 +7479,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B156" s="6">
         <v>7</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B157" s="6">
         <v>8</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B158" s="6">
         <v>9</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B159" s="6">
         <v>10</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B160" s="6">
         <v>11</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="34">
         <v>44049</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B162" s="6">
         <v>2</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B163" s="6">
         <v>3</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B164" s="6">
         <v>4</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B165" s="6">
         <v>5</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B166" s="6">
         <v>6</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B167" s="6">
         <v>7</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B168" s="6">
         <v>8</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B169" s="6">
         <v>9</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B170" s="6">
         <v>10</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B171" s="6">
         <v>11</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B172" s="6">
         <v>12</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="34">
         <v>44053</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B174" s="6">
         <v>2</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B175" s="6">
         <v>3</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B176" s="6">
         <v>4</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B177" s="6">
         <v>5</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B178" s="6">
         <v>6</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B179" s="6">
         <v>7</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B180" s="6">
         <v>8</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B181" s="6">
         <v>9</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B182" s="6">
         <v>10</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B183" s="6">
         <v>11</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B184" s="6">
         <v>12</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B185" s="6">
         <v>13</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B186" s="6">
         <v>14</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B187" s="6">
         <v>15</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B188" s="6">
         <v>16</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B189" s="6">
         <v>17</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B190" s="6">
         <v>18</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B191" s="6">
         <v>19</v>
       </c>
@@ -8331,7 +8331,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="34">
         <v>44055</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B193" s="6">
         <v>2</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="194" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B194" s="6">
         <v>3</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="195" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B195" s="6">
         <v>4</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="196" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B196" s="6">
         <v>5</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="197" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B197" s="6">
         <v>6</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="198" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B198" s="6">
         <v>7</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B199" s="6">
         <v>8</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B200" s="6">
         <v>9</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="201" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B201" s="6">
         <v>10</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="202" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B202" s="6">
         <v>11</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="203" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B203" s="6">
         <v>12</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="204" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B204" s="6">
         <v>13</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="205" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B205" s="6">
         <v>14</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="206" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B206" s="6">
         <v>15</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="207" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B207" s="6">
         <v>16</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="208" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B208" s="6">
         <v>17</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B209" s="6">
         <v>18</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B210" s="6">
         <v>19</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B211" s="6">
         <v>20</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B212" s="6">
         <v>21</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B213" s="6">
         <v>22</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B214" s="6">
         <v>23</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B215" s="6">
         <v>24</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="34">
         <v>44060</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B217" s="6">
         <v>2</v>
       </c>
@@ -8902,7 +8902,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B218" s="6">
         <v>3</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B219" s="6">
         <v>4</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B220" s="6">
         <v>5</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B221" s="6">
         <v>6</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B222" s="6">
         <v>7</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B223" s="6">
         <v>8</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="34">
         <v>44063</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B225" s="6">
         <v>2</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B226" s="6">
         <v>3</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="34">
         <v>44067</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B228" s="6">
         <v>2</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B229" s="6">
         <v>3</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B230" s="6">
         <v>4</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="34">
         <v>44070</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B232" s="6">
         <v>2</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B233" s="6">
         <v>3</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B234" s="6">
         <v>4</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B235" s="6">
         <v>5</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B236" s="6">
         <v>6</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="34">
         <v>44074</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B238" s="6">
         <v>2</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B239" s="6">
         <v>3</v>
       </c>
@@ -9381,7 +9381,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B240" s="6">
         <v>4</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B241" s="6">
         <v>5</v>
       </c>
@@ -9421,7 +9421,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B242" s="6">
         <v>6</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B243" s="6">
         <v>7</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B244" s="6">
         <v>8</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B245" s="6">
         <v>9</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B246" s="6">
         <v>10</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B247" s="6">
         <v>11</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B248" s="6">
         <v>12</v>
       </c>
@@ -9591,7 +9591,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B249" s="6">
         <v>13</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B250" s="6">
         <v>14</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B251" s="6">
         <v>15</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="34">
         <v>44077</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B253" s="6">
         <v>2</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B254" s="6">
         <v>3</v>
       </c>
@@ -9732,7 +9732,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B255" s="6">
         <v>4</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B256" s="6">
         <v>5</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="257" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B257" s="6">
         <v>6</v>
       </c>
@@ -9810,7 +9810,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="258" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B258" s="6">
         <v>7</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="259" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B259" s="6">
         <v>8</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="260" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B260" s="6">
         <v>9</v>
       </c>
